--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/26.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/26.xlsx
@@ -479,13 +479,13 @@
         <v>-11.45675651152843</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.43502630929423</v>
+        <v>-10.41669708531581</v>
       </c>
       <c r="F2" t="n">
-        <v>2.700101455027125</v>
+        <v>2.673943033949357</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.60500650155491</v>
+        <v>-15.49149623591715</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-10.84125443141457</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.93957747620867</v>
+        <v>-10.91735983828626</v>
       </c>
       <c r="F3" t="n">
-        <v>2.578264484782022</v>
+        <v>2.555981385345405</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.18871054809655</v>
+        <v>-15.08962800019036</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-10.09972947292549</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.24744297753186</v>
+        <v>-11.23414119784466</v>
       </c>
       <c r="F4" t="n">
-        <v>2.713979296039355</v>
+        <v>2.699473024490723</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.67176097039099</v>
+        <v>-14.5792638508142</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-9.322235753557901</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.79001419189867</v>
+        <v>-11.78701605454791</v>
       </c>
       <c r="F5" t="n">
-        <v>2.766348507406259</v>
+        <v>2.755377157624893</v>
       </c>
       <c r="G5" t="n">
-        <v>-14.05862224370728</v>
+        <v>-13.97559085908505</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.545389774775265</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.50884707942364</v>
+        <v>-12.5051026808109</v>
       </c>
       <c r="F6" t="n">
-        <v>2.794968281418273</v>
+        <v>2.784023116242589</v>
       </c>
       <c r="G6" t="n">
-        <v>-13.57708734518859</v>
+        <v>-13.49442254504594</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.80635875027343</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.82968705286298</v>
+        <v>-12.83671761948898</v>
       </c>
       <c r="F7" t="n">
-        <v>3.00536158808481</v>
+        <v>2.995254330290998</v>
       </c>
       <c r="G7" t="n">
-        <v>-12.91977518871689</v>
+        <v>-12.82500000844564</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.140072614165719</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.63025518702884</v>
+        <v>-13.63533500053143</v>
       </c>
       <c r="F8" t="n">
-        <v>3.130393080223294</v>
+        <v>3.121254652839769</v>
       </c>
       <c r="G8" t="n">
-        <v>-12.62420335976209</v>
+        <v>-12.52184773614547</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.55818106034908</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.25346189459785</v>
+        <v>-14.26384409075133</v>
       </c>
       <c r="F9" t="n">
-        <v>3.301535662970338</v>
+        <v>3.289412190538899</v>
       </c>
       <c r="G9" t="n">
-        <v>-12.00701911150028</v>
+        <v>-11.90213667343521</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-6.077479910863107</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.2291395792718</v>
+        <v>-15.23592139214381</v>
       </c>
       <c r="F10" t="n">
-        <v>3.483335380230546</v>
+        <v>3.474458798903855</v>
       </c>
       <c r="G10" t="n">
-        <v>-11.66951263654342</v>
+        <v>-11.56065013841447</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.68736486199343</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.0954834429145</v>
+        <v>-16.10903397635568</v>
       </c>
       <c r="F11" t="n">
-        <v>3.659714884114279</v>
+        <v>3.657489192631186</v>
       </c>
       <c r="G11" t="n">
-        <v>-11.21395286686272</v>
+        <v>-11.11201619693704</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.389377635660779</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.8990758990368</v>
+        <v>-16.92163393683309</v>
       </c>
       <c r="F12" t="n">
-        <v>3.705747420905788</v>
+        <v>3.702998037309026</v>
       </c>
       <c r="G12" t="n">
-        <v>-10.97257007936982</v>
+        <v>-10.86846008717241</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.158027571890715</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.53032128055062</v>
+        <v>-17.55052270383541</v>
       </c>
       <c r="F13" t="n">
-        <v>3.569849317408671</v>
+        <v>3.562203412549104</v>
       </c>
       <c r="G13" t="n">
-        <v>-10.4000960453125</v>
+        <v>-10.30902598674546</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.984986708061101</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.50326267393065</v>
+        <v>-18.52846535690097</v>
       </c>
       <c r="F14" t="n">
-        <v>3.823316300424488</v>
+        <v>3.813732734744345</v>
       </c>
       <c r="G14" t="n">
-        <v>-9.827726749677923</v>
+        <v>-9.730385478049691</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.838918402660634</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.34284587056486</v>
+        <v>-19.36973746060177</v>
       </c>
       <c r="F15" t="n">
-        <v>3.862985978034918</v>
+        <v>3.852826351029739</v>
       </c>
       <c r="G15" t="n">
-        <v>-9.349870788257764</v>
+        <v>-9.260463452151617</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.706820481862651</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.33005787404237</v>
+        <v>-20.34322873070115</v>
       </c>
       <c r="F16" t="n">
-        <v>4.083355619466851</v>
+        <v>4.063848088232679</v>
       </c>
       <c r="G16" t="n">
-        <v>-8.823573306323217</v>
+        <v>-8.738761368514517</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.559632811754764</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.29162205625294</v>
+        <v>-21.29530099335147</v>
       </c>
       <c r="F17" t="n">
-        <v>4.279766346698426</v>
+        <v>4.268454597043174</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.45859918000442</v>
+        <v>-8.375803456833344</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.387495627447979</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.06082103281004</v>
+        <v>-22.05938087949745</v>
       </c>
       <c r="F18" t="n">
-        <v>4.529750777158343</v>
+        <v>4.512338014378848</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.969588576563109</v>
+        <v>-7.894085266074875</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.172155407733878</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.79351866904439</v>
+        <v>-22.79776057516511</v>
       </c>
       <c r="F19" t="n">
-        <v>4.729198918649199</v>
+        <v>4.712964463125458</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.421178195128888</v>
+        <v>-7.334363134985402</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.914162968601386</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.48583964331487</v>
+        <v>-23.49462457852167</v>
       </c>
       <c r="F20" t="n">
-        <v>4.841740353876675</v>
+        <v>4.830585711855525</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.710043581674853</v>
+        <v>-6.620937368534065</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.609358093482239</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.17478280345218</v>
+        <v>-24.17263566578613</v>
       </c>
       <c r="F21" t="n">
-        <v>4.900236762973508</v>
+        <v>4.888898828712573</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.575899846758528</v>
+        <v>-6.49111409355551</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.269045332455678</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.90322544126297</v>
+        <v>-24.90308142593171</v>
       </c>
       <c r="F22" t="n">
-        <v>5.221731351554933</v>
+        <v>5.213823600638531</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.423256687926844</v>
+        <v>-6.347399885261883</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.899683981402713</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.42359211001022</v>
+        <v>-25.41310517543399</v>
       </c>
       <c r="F23" t="n">
-        <v>5.220291198242343</v>
+        <v>5.208874710164358</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.122618137772288</v>
+        <v>-6.050139149240493</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.518403421047189</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.86757828397883</v>
+        <v>-25.85495730403941</v>
       </c>
       <c r="F24" t="n">
-        <v>5.151556608323281</v>
+        <v>5.151425685294864</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.826326232161185</v>
+        <v>-5.762121579025361</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.133600273058361</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.18874556498922</v>
+        <v>-26.17947621457727</v>
       </c>
       <c r="F25" t="n">
-        <v>5.255876077366154</v>
+        <v>5.263836197493924</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.57363169501303</v>
+        <v>-5.526263743331666</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.75959765775338</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.50597206284424</v>
+        <v>-26.4855349781083</v>
       </c>
       <c r="F26" t="n">
-        <v>5.264569366453061</v>
+        <v>5.277844961534571</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.344738964431134</v>
+        <v>-5.302136610984157</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.400521465394363</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.27375388734054</v>
+        <v>-26.26343715270126</v>
       </c>
       <c r="F27" t="n">
-        <v>5.379598339220466</v>
+        <v>5.389496120168811</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.923926166492374</v>
+        <v>-4.892098778284138</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.064945204144692</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.42771936875924</v>
+        <v>-26.40692879184658</v>
       </c>
       <c r="F28" t="n">
-        <v>5.177741214006733</v>
+        <v>5.178448198360186</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.74488892513177</v>
+        <v>-4.724320917367419</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.7530560221519725</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.5625962726347</v>
+        <v>-26.54870533931963</v>
       </c>
       <c r="F29" t="n">
-        <v>5.216154030544358</v>
+        <v>5.213221354707811</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.716229874211232</v>
+        <v>-4.694915605184902</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.4703571060116022</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.59513064519639</v>
+        <v>-26.57009816216301</v>
       </c>
       <c r="F30" t="n">
-        <v>5.199291144484214</v>
+        <v>5.1961489918022</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.725944362919793</v>
+        <v>-4.708714892380081</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-0.2168646077280767</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.23951751540943</v>
+        <v>-26.21555860120907</v>
       </c>
       <c r="F31" t="n">
-        <v>5.061455380166523</v>
+        <v>5.057370581679904</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.931820825105935</v>
+        <v>-4.909158048886908</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-0.0002618070748964169</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.91270745187426</v>
+        <v>-25.88287009369797</v>
       </c>
       <c r="F32" t="n">
-        <v>5.077480358844795</v>
+        <v>5.068315746855587</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.023165822032658</v>
+        <v>-5.001458783921076</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.1758234660405768</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.72915336603326</v>
+        <v>-25.69290077946452</v>
       </c>
       <c r="F33" t="n">
-        <v>4.975596058130483</v>
+        <v>4.964153385446815</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.069591127909418</v>
+        <v>-5.045108521595391</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.3038033831528731</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.23084722757433</v>
+        <v>-25.20077420794688</v>
       </c>
       <c r="F34" t="n">
-        <v>5.024535086152855</v>
+        <v>5.015632320220481</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.288389693000345</v>
+        <v>-5.261642118294699</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.3816912989014369</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.90308142593171</v>
+        <v>-24.88620544756873</v>
       </c>
       <c r="F35" t="n">
-        <v>4.865385052808833</v>
+        <v>4.856115702396891</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.393311407973937</v>
+        <v>-5.365987771943255</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.4058996941629098</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.39562376778641</v>
+        <v>-24.38411563358854</v>
       </c>
       <c r="F36" t="n">
-        <v>5.004949001101632</v>
+        <v>4.982063655734295</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.433753531452029</v>
+        <v>-5.412923677630843</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.3779343967981044</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.82121207290852</v>
+        <v>-23.80817213927816</v>
       </c>
       <c r="F37" t="n">
-        <v>4.97625067327257</v>
+        <v>4.953234404876815</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.530597295572277</v>
+        <v>-5.515082916704832</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.3001503742335707</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.22864135398916</v>
+        <v>-23.21816751171578</v>
       </c>
       <c r="F38" t="n">
-        <v>4.796729016706822</v>
+        <v>4.777116747049916</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.559544377155333</v>
+        <v>-5.539578615321701</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.1784324771117016</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.1157595188878</v>
+        <v>-23.10533804582578</v>
       </c>
       <c r="F39" t="n">
-        <v>4.946033638313866</v>
+        <v>4.921079709097535</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.553993240750441</v>
+        <v>-5.527127835319219</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.01980356521428383</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.40196716795689</v>
+        <v>-22.39557812417013</v>
       </c>
       <c r="F40" t="n">
-        <v>5.112672468883355</v>
+        <v>5.088294600992061</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.611979050036446</v>
+        <v>-5.584288829526195</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.167407629422891</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.89465352514285</v>
+        <v>-21.89701013965436</v>
       </c>
       <c r="F41" t="n">
-        <v>5.08305767985537</v>
+        <v>5.064545163637169</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.673395042666983</v>
+        <v>-5.644002822787308</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.3751343226449704</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.06652609349515</v>
+        <v>-21.07257473740803</v>
       </c>
       <c r="F42" t="n">
-        <v>5.203192650731049</v>
+        <v>5.178814782839755</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.887205440375212</v>
+        <v>-5.858350004912047</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.5965113048884482</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.5764681058265</v>
+        <v>-20.57439952197751</v>
       </c>
       <c r="F43" t="n">
-        <v>5.210943294013351</v>
+        <v>5.189079148267668</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.006384673143444</v>
+        <v>-5.982870897239704</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.8246711821764652</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.92892280727473</v>
+        <v>-19.9418710947852</v>
       </c>
       <c r="F44" t="n">
-        <v>5.067032701177098</v>
+        <v>5.047080031646307</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.014069854911537</v>
+        <v>-5.985083496419955</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.055930254075384</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.39558166641133</v>
+        <v>-19.40485101682328</v>
       </c>
       <c r="F45" t="n">
-        <v>5.000052479838828</v>
+        <v>4.984996331570843</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.980880867207762</v>
+        <v>-5.949079663605209</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.286110375753273</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.73112111258805</v>
+        <v>-18.74447526148661</v>
       </c>
       <c r="F46" t="n">
-        <v>5.213326093130545</v>
+        <v>5.188476902336949</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.170208658601962</v>
+        <v>-6.124320137141712</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.514528684509607</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.36852978538645</v>
+        <v>-18.38446311794483</v>
       </c>
       <c r="F47" t="n">
-        <v>5.224794950419897</v>
+        <v>5.197484406692056</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.385131902051738</v>
+        <v>-6.33221281396548</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.738959949934193</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.74422332437874</v>
+        <v>-17.7683393462132</v>
       </c>
       <c r="F48" t="n">
-        <v>5.121706157844145</v>
+        <v>5.092038999604794</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.527549972364033</v>
+        <v>-6.468857178724575</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-1.96088170090018</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.24132178762236</v>
+        <v>-17.25015909204053</v>
       </c>
       <c r="F49" t="n">
-        <v>5.136369537026879</v>
+        <v>5.113248530208391</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.825596246555928</v>
+        <v>-6.759087348119959</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.179491668787365</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.63522671986749</v>
+        <v>-16.65508774327839</v>
       </c>
       <c r="F50" t="n">
-        <v>5.011102383437244</v>
+        <v>4.980440210181921</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.010629762618042</v>
+        <v>-6.934511113896247</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.39733163908121</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.87453774015752</v>
+        <v>-15.90156025322285</v>
       </c>
       <c r="F51" t="n">
-        <v>4.946609699638901</v>
+        <v>4.918749279191708</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.057408560671529</v>
+        <v>-6.975869698573259</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.614092737507155</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.3941811488946</v>
+        <v>-15.42500042978402</v>
       </c>
       <c r="F52" t="n">
-        <v>4.850590750597682</v>
+        <v>4.822154268825454</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.295334980214217</v>
+        <v>-7.217370316791738</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-2.831994679460844</v>
       </c>
       <c r="E53" t="n">
-        <v>-14.81010733451951</v>
+        <v>-14.83747024745872</v>
       </c>
       <c r="F53" t="n">
-        <v>4.803537014184519</v>
+        <v>4.777588069952218</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.546262056478739</v>
+        <v>-7.462850995074102</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.049015331248378</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.11353136182548</v>
+        <v>-14.15375091615526</v>
       </c>
       <c r="F54" t="n">
-        <v>4.642108920146036</v>
+        <v>4.614588899572729</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.80545037583639</v>
+        <v>-7.706629673987042</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.266233328006704</v>
       </c>
       <c r="E55" t="n">
-        <v>-13.56794891780507</v>
+        <v>-13.60624390361712</v>
       </c>
       <c r="F55" t="n">
-        <v>4.712938278519775</v>
+        <v>4.684946935044164</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.116143814573391</v>
+        <v>-8.015058144332425</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.480933808326672</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.26347432291789</v>
+        <v>-13.30652181466148</v>
       </c>
       <c r="F56" t="n">
-        <v>4.613332038499923</v>
+        <v>4.592934230672514</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.146805987828714</v>
+        <v>-8.046191640490049</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.693845804809812</v>
       </c>
       <c r="E57" t="n">
-        <v>-12.95187751528481</v>
+        <v>-12.99313136153908</v>
       </c>
       <c r="F57" t="n">
-        <v>4.521502626368056</v>
+        <v>4.491547437466187</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.476299973446434</v>
+        <v>-8.367529121437373</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-3.90176819433571</v>
       </c>
       <c r="E58" t="n">
-        <v>-12.50406838888641</v>
+        <v>-12.54894880302784</v>
       </c>
       <c r="F58" t="n">
-        <v>4.435302904458132</v>
+        <v>4.408830268112162</v>
       </c>
       <c r="G58" t="n">
-        <v>-8.895397679712927</v>
+        <v>-8.792099410291708</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.105192046638662</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.18559812226142</v>
+        <v>-12.22623663028214</v>
       </c>
       <c r="F59" t="n">
-        <v>4.411762943948708</v>
+        <v>4.385944922744824</v>
       </c>
       <c r="G59" t="n">
-        <v>-9.235692815175071</v>
+        <v>-9.127000516983061</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.300154858782108</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.85124689228942</v>
+        <v>-11.89209487715561</v>
       </c>
       <c r="F60" t="n">
-        <v>4.313963441721015</v>
+        <v>4.284008252819145</v>
       </c>
       <c r="G60" t="n">
-        <v>-9.330886949137261</v>
+        <v>-9.232681585521474</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.487019288550322</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.68881069093213</v>
+        <v>-11.72591427718558</v>
       </c>
       <c r="F61" t="n">
-        <v>4.193147671097567</v>
+        <v>4.162799713110445</v>
       </c>
       <c r="G61" t="n">
-        <v>-9.720788820066705</v>
+        <v>-9.615880197395954</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.662209180698888</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.60121009261814</v>
+        <v>-11.63288037319227</v>
       </c>
       <c r="F62" t="n">
-        <v>4.090530201424118</v>
+        <v>4.059946581985845</v>
       </c>
       <c r="G62" t="n">
-        <v>-9.919988207803566</v>
+        <v>-9.816061507845946</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.827627781784476</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.35833478260128</v>
+        <v>-11.38669271055645</v>
       </c>
       <c r="F63" t="n">
-        <v>4.171545371408718</v>
+        <v>4.137295907174763</v>
       </c>
       <c r="G63" t="n">
-        <v>-10.15312284450618</v>
+        <v>-10.04813566801838</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.980531346448847</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.30400172580811</v>
+        <v>-11.32263207275189</v>
       </c>
       <c r="F64" t="n">
-        <v>4.06528824154527</v>
+        <v>4.03609240620822</v>
       </c>
       <c r="G64" t="n">
-        <v>-10.34776611085412</v>
+        <v>-10.22543163310104</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.123885009097611</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.36922757856559</v>
+        <v>-11.3879626639321</v>
       </c>
       <c r="F65" t="n">
-        <v>4.074217192083326</v>
+        <v>4.046356771636133</v>
       </c>
       <c r="G65" t="n">
-        <v>-10.22087551171212</v>
+        <v>-10.11367573604406</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.25523025571263</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.21929452642215</v>
+        <v>-11.23520167437484</v>
       </c>
       <c r="F66" t="n">
-        <v>4.090294539972966</v>
+        <v>4.059606182111961</v>
       </c>
       <c r="G66" t="n">
-        <v>-10.40547698178045</v>
+        <v>-10.30562198800661</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.378475879264509</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.48454458199552</v>
+        <v>-11.49817366925375</v>
       </c>
       <c r="F67" t="n">
-        <v>3.794853634046575</v>
+        <v>3.763196445775282</v>
       </c>
       <c r="G67" t="n">
-        <v>-10.50415366829854</v>
+        <v>-10.39857733818286</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.491547965818005</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.48785693461447</v>
+        <v>-11.50024225310275</v>
       </c>
       <c r="F68" t="n">
-        <v>3.920173156847578</v>
+        <v>3.879639387249594</v>
       </c>
       <c r="G68" t="n">
-        <v>-10.28943990169424</v>
+        <v>-10.18843278527032</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.600026671754616</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.43332749327868</v>
+        <v>-11.43231938595987</v>
       </c>
       <c r="F69" t="n">
-        <v>3.874821419803839</v>
+        <v>3.843347523772329</v>
       </c>
       <c r="G69" t="n">
-        <v>-10.34169128233556</v>
+        <v>-10.23136244628834</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.703150627936329</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.6285599132545</v>
+        <v>-11.63670332562206</v>
       </c>
       <c r="F70" t="n">
-        <v>3.657279715785718</v>
+        <v>3.628502834139604</v>
       </c>
       <c r="G70" t="n">
-        <v>-10.4087238728852</v>
+        <v>-10.29662757595434</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.808170801118773</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.59504361797968</v>
+        <v>-11.59661469432069</v>
       </c>
       <c r="F71" t="n">
-        <v>3.565005165357233</v>
+        <v>3.535180899483781</v>
       </c>
       <c r="G71" t="n">
-        <v>-10.40843584222268</v>
+        <v>-10.29835575992945</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.913832944962739</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.74673103870392</v>
+        <v>-11.75171920608662</v>
       </c>
       <c r="F72" t="n">
-        <v>3.596479061388743</v>
+        <v>3.562596181634355</v>
       </c>
       <c r="G72" t="n">
-        <v>-10.56429970755343</v>
+        <v>-10.44641661276653</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.026968636479773</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.12327876073481</v>
+        <v>-12.12981181985283</v>
       </c>
       <c r="F73" t="n">
-        <v>3.695116470998307</v>
+        <v>3.657201161968668</v>
       </c>
       <c r="G73" t="n">
-        <v>-10.35823995312751</v>
+        <v>-10.2480420401087</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-6.14468944417922</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.42641794073213</v>
+        <v>-12.42688926363443</v>
       </c>
       <c r="F74" t="n">
-        <v>3.687915704435357</v>
+        <v>3.654949285879891</v>
       </c>
       <c r="G74" t="n">
-        <v>-10.27646542957809</v>
+        <v>-10.16563908602287</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-6.27362236457257</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.73966437852327</v>
+        <v>-12.7479256216164</v>
       </c>
       <c r="F75" t="n">
-        <v>3.635860708336654</v>
+        <v>3.599961613944641</v>
       </c>
       <c r="G75" t="n">
-        <v>-10.19418030621784</v>
+        <v>-10.08610334625939</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-6.40930308881278</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.97618992166189</v>
+        <v>-12.97440936847542</v>
       </c>
       <c r="F76" t="n">
-        <v>3.643585167013273</v>
+        <v>3.600066352367375</v>
       </c>
       <c r="G76" t="n">
-        <v>-10.13949375724795</v>
+        <v>-10.03090619747867</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-6.556915945412052</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.42166861815446</v>
+        <v>-13.42380266351766</v>
       </c>
       <c r="F77" t="n">
-        <v>3.65623233155838</v>
+        <v>3.620856929280036</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.915405901808963</v>
+        <v>-9.812618232198572</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-6.70894760715274</v>
       </c>
       <c r="E78" t="n">
-        <v>-14.17558887729526</v>
+        <v>-14.17655770770555</v>
       </c>
       <c r="F78" t="n">
-        <v>3.630545233382914</v>
+        <v>3.594253369905649</v>
       </c>
       <c r="G78" t="n">
-        <v>-9.617844042822213</v>
+        <v>-9.516588172644303</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-6.868358919515259</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.7758709625884</v>
+        <v>-14.77456173230423</v>
       </c>
       <c r="F79" t="n">
-        <v>3.761913400096793</v>
+        <v>3.716299816996219</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.627375239290989</v>
+        <v>-9.519481571572324</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-7.025053758477182</v>
       </c>
       <c r="E80" t="n">
-        <v>-15.14487751818245</v>
+        <v>-15.14688064051723</v>
       </c>
       <c r="F80" t="n">
-        <v>3.798205263574058</v>
+        <v>3.755419617887297</v>
       </c>
       <c r="G80" t="n">
-        <v>-9.242330612715826</v>
+        <v>-9.139058527900291</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-7.180265252700371</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.70965327816883</v>
+        <v>-15.71241575406843</v>
       </c>
       <c r="F81" t="n">
-        <v>3.781578038965066</v>
+        <v>3.737430793782765</v>
       </c>
       <c r="G81" t="n">
-        <v>-9.044505916777345</v>
+        <v>-8.943957030952889</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-7.321713346569584</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.55770719474163</v>
+        <v>-16.56328451575221</v>
       </c>
       <c r="F82" t="n">
-        <v>3.670293464810394</v>
+        <v>3.624287112624569</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.806186728149406</v>
+        <v>-8.711529378603727</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-7.449360285808577</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.50809055032537</v>
+        <v>-17.51561862445936</v>
       </c>
       <c r="F83" t="n">
-        <v>3.774351087796433</v>
+        <v>3.72905171996406</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.619582135746283</v>
+        <v>-8.523327525253913</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-7.550682500874474</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.4332450383331</v>
+        <v>-18.44106114312961</v>
       </c>
       <c r="F84" t="n">
-        <v>3.695587793900609</v>
+        <v>3.644370705183776</v>
       </c>
       <c r="G84" t="n">
-        <v>-8.319689846853706</v>
+        <v>-8.227074896551336</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-7.628336960500284</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.44537169411842</v>
+        <v>-19.45894841216529</v>
       </c>
       <c r="F85" t="n">
-        <v>3.851412382322832</v>
+        <v>3.805929722250676</v>
       </c>
       <c r="G85" t="n">
-        <v>-8.129432501957742</v>
+        <v>-8.049975316011308</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-7.673563225834078</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.62761973302912</v>
+        <v>-20.64089532811063</v>
       </c>
       <c r="F86" t="n">
-        <v>3.843609369829164</v>
+        <v>3.788804990133698</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.98020643416775</v>
+        <v>-7.902019201596961</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.692120259220432</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.82591893522379</v>
+        <v>-21.83639277749717</v>
       </c>
       <c r="F87" t="n">
-        <v>3.810250182188446</v>
+        <v>3.753743803123556</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.824159276597216</v>
+        <v>-7.746325536203154</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.677310073951791</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.23156093752286</v>
+        <v>-23.25100300724283</v>
       </c>
       <c r="F88" t="n">
-        <v>4.034940283558148</v>
+        <v>3.984875317491388</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.747713320304378</v>
+        <v>-7.672013625273518</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.634979484480755</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.72543196867233</v>
+        <v>-24.74219011630974</v>
       </c>
       <c r="F89" t="n">
-        <v>3.889956121888874</v>
+        <v>3.832323804779596</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.530904785245395</v>
+        <v>-7.464251871478167</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.557794927177081</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.34915245940604</v>
+        <v>-26.36517743808431</v>
       </c>
       <c r="F90" t="n">
-        <v>4.027818070812249</v>
+        <v>3.980581042159302</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.685433235686287</v>
+        <v>-7.621621351635714</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.449722801524479</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.05278836668565</v>
+        <v>-28.0794442952714</v>
       </c>
       <c r="F91" t="n">
-        <v>4.170209956518862</v>
+        <v>4.114908069315411</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.420759241437953</v>
+        <v>-7.356070173096985</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.301481629518057</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.00909262650772</v>
+        <v>-30.02807646562822</v>
       </c>
       <c r="F92" t="n">
-        <v>4.064895472460018</v>
+        <v>4.01242152267038</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.592281500967406</v>
+        <v>-7.533248307454063</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-7.113961688738918</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.84074507097372</v>
+        <v>-31.85531680403657</v>
       </c>
       <c r="F93" t="n">
-        <v>3.994956390679517</v>
+        <v>3.940728072309088</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.466150255390217</v>
+        <v>-7.389625745280328</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.875250129799153</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.82742347338861</v>
+        <v>-33.83497773212828</v>
       </c>
       <c r="F94" t="n">
-        <v>4.257561801078858</v>
+        <v>4.19333096333735</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.347730376186805</v>
+        <v>-7.289469628541124</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.587763197828343</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.92697061860201</v>
+        <v>-35.93777176844643</v>
       </c>
       <c r="F95" t="n">
-        <v>3.985608486450524</v>
+        <v>3.934888905241678</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.156608939303288</v>
+        <v>-7.096266515505772</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-6.241836038529165</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.17854558441353</v>
+        <v>-38.19098327211317</v>
       </c>
       <c r="F96" t="n">
-        <v>3.854554535004846</v>
+        <v>3.796608002627367</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.219360346823681</v>
+        <v>-7.166493627948791</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.850130671803744</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.14563790177719</v>
+        <v>-40.16398021805845</v>
       </c>
       <c r="F97" t="n">
-        <v>3.653692424807085</v>
+        <v>3.603260874260756</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.865069539623732</v>
+        <v>-6.819181018163482</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.40818541272255</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.6992130172388</v>
+        <v>-42.71569622651654</v>
       </c>
       <c r="F98" t="n">
-        <v>3.630283387326079</v>
+        <v>3.574510177220326</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.905354555467722</v>
+        <v>-6.861613171673516</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.945767289390607</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.83217171930429</v>
+        <v>-44.85149595829868</v>
       </c>
       <c r="F99" t="n">
-        <v>3.561863012675218</v>
+        <v>3.517296813801983</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.66511079832205</v>
+        <v>-6.629683026832338</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.457983500106094</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.11321745881254</v>
+        <v>-47.13602425036283</v>
       </c>
       <c r="F100" t="n">
-        <v>3.471238092404791</v>
+        <v>3.428347708295296</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.51682737633666</v>
+        <v>-6.500187059424826</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.998976138591392</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.45713243656676</v>
+        <v>-49.47042112395111</v>
       </c>
       <c r="F101" t="n">
-        <v>3.158462977515955</v>
+        <v>3.120809514543151</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.565111789216946</v>
+        <v>-6.562886097733852</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.54328867817446</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.85743596266029</v>
+        <v>-51.87440358714317</v>
       </c>
       <c r="F102" t="n">
-        <v>2.769490660088274</v>
+        <v>2.736026734024822</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.564038220383924</v>
+        <v>-6.545368596531623</v>
       </c>
     </row>
   </sheetData>
